--- a/results/supplementary/Tables Supporting Information.xlsx
+++ b/results/supplementary/Tables Supporting Information.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>bio1</t>
   </si>
@@ -113,12 +113,6 @@
     <t>C20</t>
   </si>
   <si>
-    <t>Caption Table 1: Bioclimatic Indices calculated for each D.langeanus population included in the experiment.</t>
-  </si>
-  <si>
-    <t>Bio1 = annual mean temperature; (2) bio2 = mean diurnal range, i.e. the mean of the monthly differences between maximum and minimum temperatures; (3) bio7 = temperature annual range; i.e. the difference between the maximum temperature of the warmest month and the minimum temperature of the coldest month; (4) snow = the number of days of snow cover, when the soil temperature is around 0 °C, calculated for the period in which the maximum temperature was &lt; 0.5 °C and the minimum temperature was &gt; -0.5 °C; (5) FDD = freezing degree days, i.e. the sum of daily mean temperatures for days in which the mean temperature was below 0 °C (Choler 2018); and (6) GDD = growing degree days, i.e. the sum of daily mean temperatures for days in which the soil mean temperature at five cm deep was above 5 °C (Körner 2021)</t>
-  </si>
-  <si>
     <t>Subpopulations ID</t>
   </si>
   <si>
@@ -161,12 +155,6 @@
     <t>WP:storage treatment</t>
   </si>
   <si>
-    <t>Model formula specification:  cbind(germinated, viable - germinated) ~ WP_treatment * storage treatment + (1 | summit/ID) Family: binomial (logit)</t>
-  </si>
-  <si>
-    <t>Caption Table 3. Model results from GLMMs testing final germination responses as a function of storage treatment and water potential (WP treatment)</t>
-  </si>
-  <si>
     <t>p-value</t>
   </si>
   <si>
@@ -192,6 +180,12 @@
   </si>
   <si>
     <t>Fixed factors</t>
+  </si>
+  <si>
+    <t>Caption Table 1: Bioclimatic Indices calculated for each D.langeanus population included in the experiment. Bio1 = annual mean temperature; (2) bio2 = mean diurnal range, i.e. the mean of the monthly differences between maximum and minimum temperatures; (3) bio7 = temperature annual range; i.e. the difference between the maximum temperature of the warmest month and the minimum temperature of the coldest month; (4) snow = the number of days of snow cover, when the soil temperature is around 0 °C, calculated for the period in which the maximum temperature was &lt; 0.5 °C and the minimum temperature was &gt; -0.5 °C; (5) FDD = freezing degree days, i.e. the sum of daily mean temperatures for days in which the mean temperature was below 0 °C (Choler 2018); and (6) GDD = growing degree days, i.e. the sum of daily mean temperatures for days in which the soil mean temperature at five cm deep was above 5 °C (Körner 2021).</t>
+  </si>
+  <si>
+    <t>Caption Table 3. Model results from GLMMs testing final germination responses as a function of storage treatment and water potential (WP treatment). Model formula specification:  cbind(germinated, viable - germinated) ~ WP_treatment * storage treatment + (1 | summit/ID) Family: binomial (logit).</t>
   </si>
 </sst>
 </file>
@@ -199,8 +193,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -266,11 +260,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -283,12 +277,15 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,118 +579,146 @@
     <col min="3" max="8" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6.6774736802061101</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6.0704386576134004</v>
+      </c>
+      <c r="E3" s="4">
+        <v>28.3689261290323</v>
+      </c>
+      <c r="F3">
+        <v>58</v>
+      </c>
+      <c r="G3" s="4">
+        <v>57.793366666666699</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2182.50765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>6.6774736802061101</v>
+        <v>6.6006172693903</v>
       </c>
       <c r="D4" s="4">
-        <v>6.0704386576134004</v>
+        <v>5.9308065039859104</v>
       </c>
       <c r="E4" s="4">
-        <v>28.3689261290323</v>
+        <v>31.892729838709698</v>
       </c>
       <c r="F4">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G4" s="4">
-        <v>57.793366666666699</v>
+        <v>93.900033333333297</v>
       </c>
       <c r="H4" s="4">
-        <v>2182.50765</v>
+        <v>2201.75043333333</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
-        <v>6.6006172693903</v>
+        <v>7.7522940891021896</v>
       </c>
       <c r="D5" s="4">
-        <v>5.9308065039859104</v>
+        <v>9.1622820249045294</v>
       </c>
       <c r="E5" s="4">
-        <v>31.892729838709698</v>
+        <v>34.161196699129</v>
       </c>
       <c r="F5">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4">
-        <v>93.900033333333297</v>
+        <v>29.954266621166699</v>
       </c>
       <c r="H5" s="4">
-        <v>2201.75043333333</v>
+        <v>2426.4740505448299</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
-        <v>7.7522940891021896</v>
+        <v>8.5361044298057607</v>
       </c>
       <c r="D6" s="4">
-        <v>9.1622820249045294</v>
+        <v>8.6778669421049806</v>
       </c>
       <c r="E6" s="4">
-        <v>34.161196699129</v>
+        <v>29.849193548387099</v>
       </c>
       <c r="F6">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>29.954266621166699</v>
+        <v>11.0833333333333</v>
       </c>
       <c r="H6" s="4">
-        <v>2426.4740505448299</v>
+        <v>2380.3404761904799</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -701,25 +726,25 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4">
-        <v>8.5361044298057607</v>
+        <v>7.3846573353108402</v>
       </c>
       <c r="D7" s="4">
-        <v>8.6778669421049806</v>
+        <v>10.1731973717791</v>
       </c>
       <c r="E7" s="4">
-        <v>29.849193548387099</v>
+        <v>40.320161290322602</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G7" s="4">
-        <v>11.0833333333333</v>
+        <v>12.75</v>
       </c>
       <c r="H7" s="4">
-        <v>2380.3404761904799</v>
+        <v>2078.2023809523798</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -727,25 +752,25 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4">
-        <v>7.3846573353108402</v>
+        <v>6.5036492567499202</v>
       </c>
       <c r="D8" s="4">
-        <v>10.1731973717791</v>
+        <v>4.5187893956247702</v>
       </c>
       <c r="E8" s="4">
-        <v>40.320161290322602</v>
+        <v>26.187096774193499</v>
       </c>
       <c r="F8">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G8" s="4">
-        <v>12.75</v>
+        <v>8.5</v>
       </c>
       <c r="H8" s="4">
-        <v>2078.2023809523798</v>
+        <v>1833.3333333333301</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -753,25 +778,25 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4">
-        <v>6.5036492567499202</v>
+        <v>6.5124966091873802</v>
       </c>
       <c r="D9" s="4">
-        <v>4.5187893956247702</v>
+        <v>6.26662597691519</v>
       </c>
       <c r="E9" s="4">
-        <v>26.187096774193499</v>
+        <v>28.306451612903199</v>
       </c>
       <c r="F9">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G9" s="4">
-        <v>8.5</v>
+        <v>1.5833333333333299</v>
       </c>
       <c r="H9" s="4">
-        <v>1833.3333333333301</v>
+        <v>1775.8333333333301</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -779,51 +804,51 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4">
-        <v>6.5124966091873802</v>
+        <v>6.7464966685767598</v>
       </c>
       <c r="D10" s="4">
-        <v>6.26662597691519</v>
+        <v>6.9997996812234904</v>
       </c>
       <c r="E10" s="4">
-        <v>28.306451612903199</v>
+        <v>28.367857142857101</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G10" s="4">
-        <v>1.5833333333333299</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>1775.8333333333301</v>
+        <v>1860.2142857142901</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4">
-        <v>6.7464966685767598</v>
+        <v>6.6009699977441896</v>
       </c>
       <c r="D11" s="4">
-        <v>6.9997996812234904</v>
+        <v>5.3096153846153804</v>
       </c>
       <c r="E11" s="4">
-        <v>28.367857142857101</v>
+        <v>25.557692307692299</v>
       </c>
       <c r="F11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>12.1666666666667</v>
       </c>
       <c r="H11" s="4">
-        <v>1860.2142857142901</v>
+        <v>1975.5952380952399</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -831,25 +856,25 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4">
-        <v>6.6009699977441896</v>
+        <v>7.9841290877581201</v>
       </c>
       <c r="D12" s="4">
-        <v>5.3096153846153804</v>
+        <v>7.5570821651466797</v>
       </c>
       <c r="E12" s="4">
-        <v>25.557692307692299</v>
+        <v>31.258064516129</v>
       </c>
       <c r="F12">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G12" s="4">
-        <v>12.1666666666667</v>
+        <v>4.1666666666666696</v>
       </c>
       <c r="H12" s="4">
-        <v>1975.5952380952399</v>
+        <v>2341.5261904761901</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -857,51 +882,51 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
-        <v>7.9841290877581201</v>
+        <v>4.8270882343463004</v>
       </c>
       <c r="D13" s="4">
-        <v>7.5570821651466797</v>
+        <v>2.6932121641799101</v>
       </c>
       <c r="E13" s="4">
-        <v>31.258064516129</v>
+        <v>16.903225806451601</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="G13" s="4">
-        <v>4.1666666666666696</v>
+        <v>5</v>
       </c>
       <c r="H13" s="4">
-        <v>2341.5261904761901</v>
+        <v>1375.2738095238101</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4">
-        <v>4.8270882343463004</v>
+        <v>7.8799300208504901</v>
       </c>
       <c r="D14" s="4">
-        <v>2.6932121641799101</v>
+        <v>6.1421467575805702</v>
       </c>
       <c r="E14" s="4">
-        <v>16.903225806451601</v>
+        <v>28.2258064516129</v>
       </c>
       <c r="F14">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="G14" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>1375.2738095238101</v>
+        <v>2190.8523809523799</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -909,51 +934,51 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4">
-        <v>7.8799300208504901</v>
+        <v>7.7343277443110603</v>
       </c>
       <c r="D15" s="4">
-        <v>6.1421467575805702</v>
+        <v>7.8939708141320999</v>
       </c>
       <c r="E15" s="4">
-        <v>28.2258064516129</v>
+        <v>33.1782258064516</v>
       </c>
       <c r="F15">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H15" s="4">
-        <v>2190.8523809523799</v>
+        <v>2190.2857142857101</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4">
-        <v>7.7343277443110603</v>
+        <v>6.8401662853275802</v>
       </c>
       <c r="D16" s="4">
-        <v>7.8939708141320999</v>
+        <v>5.2736666559247203</v>
       </c>
       <c r="E16" s="4">
-        <v>33.1782258064516</v>
+        <v>23.903225806451601</v>
       </c>
       <c r="F16">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G16" s="4">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="H16" s="4">
-        <v>2190.2857142857101</v>
+        <v>1951.94047619048</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -961,25 +986,25 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4">
-        <v>6.8401662853275802</v>
+        <v>6.3902585765489004</v>
       </c>
       <c r="D17" s="4">
-        <v>5.2736666559247203</v>
+        <v>6.6765659072110699</v>
       </c>
       <c r="E17" s="4">
-        <v>23.903225806451601</v>
+        <v>28.951612903225801</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G17" s="4">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="H17" s="4">
-        <v>1951.94047619048</v>
+        <v>1896.9047619047601</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -987,25 +1012,25 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4">
-        <v>6.3902585765489004</v>
+        <v>5.5095888430565898</v>
       </c>
       <c r="D18" s="4">
-        <v>6.6765659072110699</v>
+        <v>4.51065977033719</v>
       </c>
       <c r="E18" s="4">
-        <v>28.951612903225801</v>
+        <v>22.693548387096801</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G18" s="4">
-        <v>7</v>
+        <v>8.4166666666666696</v>
       </c>
       <c r="H18" s="4">
-        <v>1896.9047619047601</v>
+        <v>1595.75</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1013,54 +1038,31 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4">
-        <v>5.5095888430565898</v>
+        <v>6.4650021125827601</v>
       </c>
       <c r="D19" s="4">
-        <v>4.51065977033719</v>
+        <v>7.5087788555530501</v>
       </c>
       <c r="E19" s="4">
-        <v>22.693548387096801</v>
+        <v>27.951612903225801</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G19" s="4">
-        <v>8.4166666666666696</v>
+        <v>6.25</v>
       </c>
       <c r="H19" s="4">
-        <v>1595.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="4">
-        <v>6.4650021125827601</v>
-      </c>
-      <c r="D20" s="4">
-        <v>7.5087788555530501</v>
-      </c>
-      <c r="E20" s="4">
-        <v>27.951612903225801</v>
-      </c>
-      <c r="F20">
-        <v>16</v>
-      </c>
-      <c r="G20" s="4">
-        <v>6.25</v>
-      </c>
-      <c r="H20" s="4">
         <v>1869.4642857142901</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1068,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,27 +1083,30 @@
     <col min="3" max="3" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1117,7 @@
         <v>-9.5883540000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1123,7 +1128,7 @@
         <v>4.1033819999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1139,7 @@
         <v>0.12739434999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -1145,7 +1150,7 @@
         <v>0.98850464999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1156,7 +1161,7 @@
         <v>-0.11525557</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -1167,14 +1172,14 @@
         <v>-1.174965E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1190,7 @@
         <v>0.90340211000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1196,7 +1201,7 @@
         <v>0.16545383999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1207,7 +1212,7 @@
         <v>1.5947527100000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1218,7 +1223,7 @@
         <v>96.017506069999996</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1234,7 @@
         <v>1.30531956</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>5</v>
       </c>
@@ -1241,16 +1246,19 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,83 +1270,85 @@
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="3">
+        <v>2.8083399999999998</v>
+      </c>
+      <c r="C3" s="3">
+        <v>7.2650000000000006E-2</v>
+      </c>
+      <c r="D3">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
       <c r="B4" s="3">
-        <v>2.8083399999999998</v>
+        <v>-0.42902000000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>7.2650000000000006E-2</v>
+        <v>4.428E-2</v>
       </c>
       <c r="D4">
-        <v>38.659999999999997</v>
+        <v>-9.69</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3">
-        <v>-0.42902000000000001</v>
+        <v>0.97418000000000005</v>
       </c>
       <c r="C5" s="3">
-        <v>4.428E-2</v>
+        <v>0.12614</v>
       </c>
       <c r="D5">
-        <v>-9.69</v>
+        <v>7.72</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.97418000000000005</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.12614</v>
-      </c>
-      <c r="D6">
-        <v>7.72</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1347,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,37 +1371,42 @@
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>53</v>
-      </c>
+    <row r="1" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>48</v>
+      <c r="A4" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1410,9 +1425,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
         <v>-0.21249999999999999</v>
@@ -1428,9 +1443,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
         <v>2.7950000000000002E-4</v>
@@ -1447,14 +1462,14 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>51</v>
+      <c r="A8" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1474,14 +1489,14 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>51</v>
+      <c r="A10" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1500,8 +1515,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/supplementary/Tables Supporting Information.xlsx
+++ b/results/supplementary/Tables Supporting Information.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laptop\OneDrive - Universidad de Oviedo\IMIB\Softwares\GitHub\Hidro_thermal_experiments\results\supplementary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/Dianthus_PEG/results/supplementary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_25756DACD36354C2B2B7C28678671950773812AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E245369-BE96-4A4F-B92F-E0D031D0AE63}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8520" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -191,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -260,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -282,10 +283,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,30 +573,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.5703125" customWidth="1"/>
+    <col min="3" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1069,7 +1080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1084,12 +1095,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
@@ -1254,7 +1265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1271,13 +1282,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
@@ -1354,17 +1365,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
@@ -1372,14 +1383,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -1396,16 +1407,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B4" t="s">
@@ -1425,7 +1436,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" t="s">
         <v>40</v>
       </c>
@@ -1443,7 +1454,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
         <v>45</v>
       </c>
